--- a/ig/terminology/ValueSet-npu-observation-codes-valueset.xlsx
+++ b/ig/terminology/ValueSet-npu-observation-codes-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-npu-observation-codes-valueset.xlsx
+++ b/ig/terminology/ValueSet-npu-observation-codes-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-28</t>
+    <t>2025-11-18</t>
   </si>
   <si>
     <t>Publisher</t>
